--- a/src/main/webapp/doc/雷鸣教育_接口文档_V1.0.0.xlsx
+++ b/src/main/webapp/doc/雷鸣教育_接口文档_V1.0.0.xlsx
@@ -5,29 +5,30 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dznzyx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangYaxu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" tabRatio="905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" tabRatio="905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更历史" sheetId="1" r:id="rId1"/>
     <sheet name="接口速查" sheetId="2" r:id="rId2"/>
     <sheet name="用户登录" sheetId="33" r:id="rId3"/>
-    <sheet name="根据地址码查询照片" sheetId="12" r:id="rId4"/>
-    <sheet name="根据空间和时间段查询照片" sheetId="16" r:id="rId5"/>
-    <sheet name="添加事件" sheetId="18" r:id="rId6"/>
-    <sheet name="数据字典" sheetId="30" r:id="rId7"/>
-    <sheet name="接口状态" sheetId="31" r:id="rId8"/>
-    <sheet name="补充说明" sheetId="32" r:id="rId9"/>
+    <sheet name="用户注册" sheetId="34" r:id="rId4"/>
+    <sheet name="根据地址码查询照片" sheetId="12" r:id="rId5"/>
+    <sheet name="根据空间和时间段查询照片" sheetId="16" r:id="rId6"/>
+    <sheet name="添加事件" sheetId="18" r:id="rId7"/>
+    <sheet name="数据字典" sheetId="30" r:id="rId8"/>
+    <sheet name="接口状态" sheetId="31" r:id="rId9"/>
+    <sheet name="通用数据参数" sheetId="32" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="150">
   <si>
     <t>版本</t>
   </si>
@@ -551,25 +552,6 @@
     <t>403</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>禁止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访问</t>
-    </r>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
@@ -595,16 +577,84 @@
     <t>接口处理异常，返回信息异常</t>
   </si>
   <si>
-    <t>510001</t>
+    <t>通用请求数据</t>
+  </si>
+  <si>
+    <t>通用返回数据</t>
+  </si>
+  <si>
+    <t>服务器端状态</t>
+  </si>
+  <si>
+    <t>异常状态下异常信息描述</t>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚旭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorMsg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚旭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚旭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>userMac</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>userProofRule</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户MAC地址</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm/service/lmuser/login</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚旭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚旭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非法</t>
+      <t>禁止</t>
     </r>
     <r>
       <rPr>
@@ -613,168 +663,72 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>访问：超出访问权限</t>
+      <t>访问</t>
     </r>
-  </si>
-  <si>
-    <t>510002</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访问：令牌不存在</t>
-    </r>
-  </si>
-  <si>
-    <t>510003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访问：令牌已过期</t>
-    </r>
-  </si>
-  <si>
-    <t>501001</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访问：你未获授权访问该相册</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>何</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伟</t>
-    </r>
-  </si>
-  <si>
-    <t>通用请求数据</t>
-  </si>
-  <si>
-    <t>通用返回数据</t>
-  </si>
-  <si>
-    <t>服务器端状态</t>
-  </si>
-  <si>
-    <t>异常状态下异常信息描述</t>
-  </si>
-  <si>
-    <t>create</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>张亚旭</t>
+    <t>2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
+    <t>您还未注册</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>errorMsg</t>
+    <t>userPermission</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>张亚旭</t>
+    <t>拥有权限</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>张亚旭</t>
+    <t>以英文半角逗号隔开</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>userName</t>
+    <t>lm/service/lmuser/signup</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>userMac</t>
+    <t>用户注册</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>userProofRule</t>
+    <t>2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
+    <t>参数为空</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>用户MAC地址</t>
+    <t>3</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>令牌</t>
+    <t>1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>lm/service/lmuser/login</t>
+    <t>您没有注册资格</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>张亚旭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已经注册</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -852,6 +806,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -981,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,69 +1136,105 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1248,24 +1243,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1276,6 +1253,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1295,7 +1340,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1662,7 +1707,7 @@
         <v>42248</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>7</v>
@@ -1671,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1838,6 +1883,179 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="85" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+    </row>
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="12">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="12">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C15">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D13" location="接口状态!A1" display="服务器端状态"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1923,7 +2141,7 @@
       <c r="E5" s="48"/>
       <c r="F5" s="50"/>
     </row>
-    <row r="6" spans="1:6" s="97" customFormat="1">
+    <row r="6" spans="1:6" s="79" customFormat="1">
       <c r="A6" s="48">
         <v>5</v>
       </c>
@@ -1933,7 +2151,7 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" s="97" customFormat="1">
+    <row r="7" spans="1:6" s="79" customFormat="1">
       <c r="A7" s="48">
         <v>6</v>
       </c>
@@ -1943,7 +2161,7 @@
       <c r="E7" s="48"/>
       <c r="F7" s="50"/>
     </row>
-    <row r="8" spans="1:6" s="98" customFormat="1">
+    <row r="8" spans="1:6" s="80" customFormat="1">
       <c r="A8" s="48">
         <v>7</v>
       </c>
@@ -1953,7 +2171,7 @@
       <c r="E8" s="52"/>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" s="97" customFormat="1">
+    <row r="9" spans="1:6" s="79" customFormat="1">
       <c r="A9" s="48">
         <v>8</v>
       </c>
@@ -1963,7 +2181,7 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" s="97" customFormat="1">
+    <row r="10" spans="1:6" s="79" customFormat="1">
       <c r="A10" s="48">
         <v>9</v>
       </c>
@@ -1973,7 +2191,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" s="97" customFormat="1">
+    <row r="11" spans="1:6" s="79" customFormat="1">
       <c r="A11" s="48">
         <v>10</v>
       </c>
@@ -1983,7 +2201,7 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
     </row>
-    <row r="12" spans="1:6" s="97" customFormat="1">
+    <row r="12" spans="1:6" s="79" customFormat="1">
       <c r="A12" s="48">
         <v>11</v>
       </c>
@@ -1993,7 +2211,7 @@
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
     </row>
-    <row r="13" spans="1:6" s="97" customFormat="1">
+    <row r="13" spans="1:6" s="79" customFormat="1">
       <c r="A13" s="48">
         <v>12</v>
       </c>
@@ -2003,7 +2221,7 @@
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="1:6" s="97" customFormat="1">
+    <row r="14" spans="1:6" s="79" customFormat="1">
       <c r="A14" s="48">
         <v>13</v>
       </c>
@@ -2013,7 +2231,7 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
     </row>
-    <row r="15" spans="1:6" s="97" customFormat="1">
+    <row r="15" spans="1:6" s="79" customFormat="1">
       <c r="A15" s="48">
         <v>14</v>
       </c>
@@ -2023,7 +2241,7 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="1:6" s="97" customFormat="1">
+    <row r="16" spans="1:6" s="79" customFormat="1">
       <c r="A16" s="48">
         <v>15</v>
       </c>
@@ -2033,7 +2251,7 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
     </row>
-    <row r="17" spans="1:6" s="97" customFormat="1">
+    <row r="17" spans="1:6" s="79" customFormat="1">
       <c r="A17" s="48">
         <v>16</v>
       </c>
@@ -2043,7 +2261,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" s="97" customFormat="1">
+    <row r="18" spans="1:6" s="79" customFormat="1">
       <c r="A18" s="48">
         <v>17</v>
       </c>
@@ -2053,7 +2271,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:6" s="97" customFormat="1">
+    <row r="19" spans="1:6" s="79" customFormat="1">
       <c r="A19" s="48">
         <v>18</v>
       </c>
@@ -2063,7 +2281,7 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:6" s="97" customFormat="1">
+    <row r="20" spans="1:6" s="79" customFormat="1">
       <c r="A20" s="48">
         <v>19</v>
       </c>
@@ -2073,7 +2291,7 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="1:6" s="97" customFormat="1">
+    <row r="21" spans="1:6" s="79" customFormat="1">
       <c r="A21" s="48">
         <v>20</v>
       </c>
@@ -2083,7 +2301,7 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6" s="97" customFormat="1">
+    <row r="22" spans="1:6" s="79" customFormat="1">
       <c r="A22" s="48">
         <v>21</v>
       </c>
@@ -2093,7 +2311,7 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="1:6" s="97" customFormat="1">
+    <row r="23" spans="1:6" s="79" customFormat="1">
       <c r="A23" s="48">
         <v>22</v>
       </c>
@@ -2103,7 +2321,7 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="1:6" s="97" customFormat="1">
+    <row r="24" spans="1:6" s="79" customFormat="1">
       <c r="A24" s="48">
         <v>23</v>
       </c>
@@ -2113,7 +2331,7 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="1:6" s="97" customFormat="1">
+    <row r="25" spans="1:6" s="79" customFormat="1">
       <c r="A25" s="48">
         <v>24</v>
       </c>
@@ -2127,11 +2345,11 @@
       <c r="A26" s="48">
         <v>25</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="48">
@@ -2187,8 +2405,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2205,50 +2423,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="B2" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="B3" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="89" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -2257,75 +2475,75 @@
       <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C5" s="35">
         <v>42248</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="33"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="36" t="s">
         <v>23</v>
       </c>
@@ -2340,110 +2558,110 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="38" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="81"/>
-      <c r="B12" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="38" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="81"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="81"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="81"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
@@ -2458,141 +2676,103 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="28" customFormat="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="43" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>139</v>
+      </c>
       <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="28" customFormat="1">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43"/>
-      <c r="C19" s="43" t="s">
-        <v>35</v>
-      </c>
+      <c r="C19" s="43"/>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="28" customFormat="1">
-      <c r="A20" s="83"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43"/>
-      <c r="C20" s="43" t="s">
-        <v>37</v>
-      </c>
+      <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="39"/>
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1">
-      <c r="A21" s="83"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43"/>
-      <c r="C21" s="43" t="s">
-        <v>40</v>
-      </c>
+      <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>41</v>
-      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="39"/>
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1">
-      <c r="A22" s="83"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="43"/>
-      <c r="C22" s="43" t="s">
-        <v>42</v>
-      </c>
+      <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
-      <c r="F22" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>43</v>
-      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="39"/>
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43"/>
-      <c r="C23" s="43" t="s">
-        <v>44</v>
-      </c>
+      <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>45</v>
-      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="28" customFormat="1">
-      <c r="A24" s="83"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>47</v>
-      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
-      <c r="F25" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>49</v>
-      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" s="28" customFormat="1">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -2603,7 +2783,7 @@
       <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" s="28" customFormat="1">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -2614,7 +2794,7 @@
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" s="28" customFormat="1">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -2625,69 +2805,578 @@
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="87" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9" s="28" customFormat="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" s="28" customFormat="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" s="28" customFormat="1">
-      <c r="A32" s="85"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9" s="28" customFormat="1">
       <c r="A33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"数据类型,数据字典,字符串,整数,浮点数,数组,文件,URL,对象"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="17.5" style="30" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="30" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="9" width="51.25" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A4" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="35">
+        <v>42248</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A7" s="89"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A8" s="89"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+    </row>
+    <row r="9" spans="1:9" s="26" customFormat="1">
+      <c r="A9" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="89"/>
+      <c r="B10" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="89"/>
+      <c r="B11" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="89"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="89"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="89"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" s="27" customFormat="1">
+      <c r="A17" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="28" customFormat="1">
+      <c r="A18" s="84"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" s="28" customFormat="1">
+      <c r="A19" s="84"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" s="28" customFormat="1">
+      <c r="A20" s="84"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1">
+      <c r="A21" s="84"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" s="28" customFormat="1">
+      <c r="A22" s="84"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" s="28" customFormat="1">
+      <c r="A23" s="84"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" s="28" customFormat="1">
+      <c r="A24" s="84"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1">
+      <c r="A25" s="84"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" s="28" customFormat="1">
+      <c r="A26" s="84"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9" s="28" customFormat="1">
+      <c r="A27" s="84"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" s="28" customFormat="1">
+      <c r="A28" s="85"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="71"/>
+    </row>
+    <row r="29" spans="1:9" s="27" customFormat="1">
+      <c r="A29" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+    </row>
+    <row r="30" spans="1:9" s="28" customFormat="1">
+      <c r="A30" s="87"/>
+      <c r="B30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:9" s="28" customFormat="1">
+      <c r="A31" s="87"/>
+      <c r="B31" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9" s="28" customFormat="1">
+      <c r="A32" s="87"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+    </row>
+    <row r="33" spans="1:9" s="28" customFormat="1">
+      <c r="A33" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2718,21 +3407,18 @@
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"数据类型,数据字典,字符串,整数,浮点数,数组,文件,URL,对象"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="10"/>
@@ -2757,50 +3443,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="89" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -2809,75 +3495,75 @@
       <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="35">
         <v>42219</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="33"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="36" t="s">
         <v>23</v>
       </c>
@@ -2892,13 +3578,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="38" t="s">
         <v>30</v>
       </c>
@@ -2909,13 +3595,13 @@
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
@@ -2926,13 +3612,13 @@
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="81"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="38" t="s">
         <v>30</v>
       </c>
@@ -2943,59 +3629,59 @@
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="81"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="81"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="81"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
@@ -3010,7 +3696,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="28" customFormat="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="43" t="s">
         <v>62</v>
       </c>
@@ -3025,7 +3711,7 @@
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" s="28" customFormat="1">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43" t="s">
         <v>35</v>
@@ -3042,7 +3728,7 @@
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="28" customFormat="1">
-      <c r="A20" s="83"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
         <v>37</v>
@@ -3059,7 +3745,7 @@
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1">
-      <c r="A21" s="83"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
         <v>40</v>
@@ -3076,7 +3762,7 @@
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1">
-      <c r="A22" s="83"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
         <v>42</v>
@@ -3093,7 +3779,7 @@
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
         <v>44</v>
@@ -3110,7 +3796,7 @@
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="28" customFormat="1">
-      <c r="A24" s="83"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43" t="s">
         <v>46</v>
@@ -3127,7 +3813,7 @@
       <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43" t="s">
         <v>48</v>
@@ -3144,7 +3830,7 @@
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" s="28" customFormat="1">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -3155,7 +3841,7 @@
       <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" s="28" customFormat="1">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -3166,7 +3852,7 @@
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" s="28" customFormat="1">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -3177,72 +3863,82 @@
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="87" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9" s="28" customFormat="1">
-      <c r="A30" s="85"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" s="28" customFormat="1">
-      <c r="A31" s="85"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" s="28" customFormat="1">
-      <c r="A32" s="85"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9" s="28" customFormat="1">
       <c r="A33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="A4:A8"/>
@@ -3259,16 +3955,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
@@ -3284,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="10"/>
@@ -3309,50 +3995,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="89" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -3361,75 +4047,75 @@
       <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="35">
         <v>42214</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="33"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="36" t="s">
         <v>23</v>
       </c>
@@ -3444,13 +4130,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="38" t="s">
         <v>30</v>
       </c>
@@ -3461,13 +4147,13 @@
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
@@ -3478,13 +4164,13 @@
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="81"/>
-      <c r="B12" s="78" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="38" t="s">
         <v>30</v>
       </c>
@@ -3495,13 +4181,13 @@
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="81"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="38" t="s">
         <v>30</v>
       </c>
@@ -3512,13 +4198,13 @@
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="81"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="38" t="s">
         <v>27</v>
       </c>
@@ -3529,13 +4215,13 @@
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="81"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="38" t="s">
         <v>29</v>
       </c>
@@ -3546,13 +4232,13 @@
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="81"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="38" t="s">
         <v>29</v>
       </c>
@@ -3563,13 +4249,13 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="81"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="38" t="s">
         <v>29</v>
       </c>
@@ -3580,13 +4266,13 @@
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="81"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="38" t="s">
         <v>29</v>
       </c>
@@ -3597,48 +4283,48 @@
       <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="81"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="81"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="81"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="41" t="s">
         <v>23</v>
       </c>
@@ -3653,7 +4339,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>96</v>
       </c>
@@ -3670,7 +4356,7 @@
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="28" customFormat="1">
-      <c r="A24" s="83"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>97</v>
       </c>
@@ -3687,7 +4373,7 @@
       <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>32</v>
       </c>
@@ -3702,7 +4388,7 @@
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" s="28" customFormat="1">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43" t="s">
         <v>70</v>
@@ -3719,7 +4405,7 @@
       <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" s="28" customFormat="1">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43" t="s">
         <v>85</v>
@@ -3736,7 +4422,7 @@
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" s="28" customFormat="1">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43" t="s">
         <v>87</v>
@@ -3753,7 +4439,7 @@
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="1:9" s="28" customFormat="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43" t="s">
         <v>73</v>
@@ -3770,7 +4456,7 @@
       <c r="I29" s="43"/>
     </row>
     <row r="30" spans="1:9" s="28" customFormat="1">
-      <c r="A30" s="83"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43" t="s">
         <v>90</v>
@@ -3787,7 +4473,7 @@
       <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" s="28" customFormat="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43" t="s">
         <v>64</v>
@@ -3804,7 +4490,7 @@
       <c r="I31" s="43"/>
     </row>
     <row r="32" spans="1:9" s="28" customFormat="1">
-      <c r="A32" s="83"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43" t="s">
         <v>66</v>
@@ -3821,7 +4507,7 @@
       <c r="I32" s="43"/>
     </row>
     <row r="33" spans="1:9" s="28" customFormat="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43" t="s">
         <v>68</v>
@@ -3838,7 +4524,7 @@
       <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:9" s="28" customFormat="1">
-      <c r="A34" s="83"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43" t="s">
         <v>91</v>
@@ -3857,7 +4543,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="28" customFormat="1">
-      <c r="A35" s="83"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43" t="s">
@@ -3874,7 +4560,7 @@
       <c r="I35" s="43"/>
     </row>
     <row r="36" spans="1:9" s="28" customFormat="1">
-      <c r="A36" s="83"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43" t="s">
@@ -3891,7 +4577,7 @@
       <c r="I36" s="43"/>
     </row>
     <row r="37" spans="1:9" s="28" customFormat="1">
-      <c r="A37" s="83"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43" t="s">
@@ -3908,7 +4594,7 @@
       <c r="I37" s="43"/>
     </row>
     <row r="38" spans="1:9" s="28" customFormat="1">
-      <c r="A38" s="83"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
       <c r="D38" s="43" t="s">
@@ -3925,7 +4611,7 @@
       <c r="I38" s="43"/>
     </row>
     <row r="39" spans="1:9" s="28" customFormat="1">
-      <c r="A39" s="83"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43" t="s">
@@ -3942,7 +4628,7 @@
       <c r="I39" s="43"/>
     </row>
     <row r="40" spans="1:9" s="28" customFormat="1">
-      <c r="A40" s="83"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43" t="s">
@@ -3959,7 +4645,7 @@
       <c r="I40" s="43"/>
     </row>
     <row r="41" spans="1:9" s="28" customFormat="1">
-      <c r="A41" s="83"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43" t="s">
@@ -3976,7 +4662,7 @@
       <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" s="28" customFormat="1">
-      <c r="A42" s="83"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -3987,7 +4673,7 @@
       <c r="I42" s="43"/>
     </row>
     <row r="43" spans="1:9" s="28" customFormat="1">
-      <c r="A43" s="83"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -3998,7 +4684,7 @@
       <c r="I43" s="43"/>
     </row>
     <row r="44" spans="1:9" s="28" customFormat="1">
-      <c r="A44" s="84"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -4009,72 +4695,87 @@
       <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" s="27" customFormat="1">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="87" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
     </row>
     <row r="46" spans="1:9" s="28" customFormat="1">
-      <c r="A46" s="85"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
     </row>
     <row r="47" spans="1:9" s="28" customFormat="1">
-      <c r="A47" s="85"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" spans="1:9" s="28" customFormat="1">
-      <c r="A48" s="85"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" spans="1:9" s="28" customFormat="1">
       <c r="A49" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="B49:I49"/>
     <mergeCell ref="A4:A8"/>
@@ -4091,21 +4792,6 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
@@ -4121,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="10"/>
@@ -4146,50 +4832,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="89" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -4198,81 +4884,81 @@
       <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="35">
         <v>42214</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="35">
         <v>42223</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="36" t="s">
         <v>23</v>
       </c>
@@ -4287,13 +4973,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="38" t="s">
         <v>30</v>
       </c>
@@ -4304,13 +4990,13 @@
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
@@ -4321,13 +5007,13 @@
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="81"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="38" t="s">
         <v>30</v>
       </c>
@@ -4338,37 +5024,37 @@
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="81"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="81"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" s="27" customFormat="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="41" t="s">
         <v>23</v>
       </c>
@@ -4383,7 +5069,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="43" t="s">
         <v>102</v>
       </c>
@@ -4400,7 +5086,7 @@
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" s="28" customFormat="1">
-      <c r="A17" s="83"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -4411,7 +5097,7 @@
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" s="28" customFormat="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -4422,72 +5108,89 @@
       <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" s="27" customFormat="1">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="87" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
     </row>
     <row r="20" spans="1:9" s="28" customFormat="1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="45"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="45"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1">
-      <c r="A22" s="85"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1">
       <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
@@ -4495,23 +5198,6 @@
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
@@ -4526,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F22"/>
   <sheetViews>
@@ -4716,12 +5402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4753,8 +5439,8 @@
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="18">
-        <v>200</v>
+      <c r="B2" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -4763,10 +5449,10 @@
         <v>110</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F2" s="12">
-        <v>42135</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -4774,31 +5460,31 @@
         <v>111</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F3" s="12">
-        <v>42135</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F4" s="12">
-        <v>42135</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -4809,49 +5495,25 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>42135</v>
-      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12">
-        <v>42135</v>
-      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>121</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="12">
-        <v>42135</v>
-      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="18"/>
@@ -4861,19 +5523,11 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="12">
-        <v>42187</v>
-      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="18"/>
@@ -5184,177 +5838,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="85" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-    </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="12">
-        <v>42248</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="12">
-        <v>42248</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:F11"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C15">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D13" location="接口状态!A1" display="服务器端状态"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/webapp/doc/雷鸣教育_接口文档_V1.0.0.xlsx
+++ b/src/main/webapp/doc/雷鸣教育_接口文档_V1.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" tabRatio="905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" tabRatio="905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更历史" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
   <si>
     <t>版本</t>
   </si>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>userProofRule</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -250,10 +246,6 @@
   </si>
   <si>
     <t>令牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm/service/lmuser/login</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -410,6 +402,22 @@
   <si>
     <t>content</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm/service/lmuser/login</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>userProofRule</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式不正确</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -876,6 +884,45 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -892,49 +939,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,74 +962,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1041,7 +981,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1594,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1934,7 +1874,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1951,50 +1891,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="B2" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="B3" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -2003,75 +1943,75 @@
       <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="35">
         <v>42248</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="91"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="33"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="91"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="36" t="s">
         <v>20</v>
       </c>
@@ -2086,43 +2026,43 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="91"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="38" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="91"/>
-      <c r="B11" s="95" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="38" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="91"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="96" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
@@ -2131,13 +2071,13 @@
         <v>23</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="91"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="96"/>
       <c r="C13" s="97"/>
       <c r="D13" s="97"/>
@@ -2148,7 +2088,7 @@
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="91"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="96"/>
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
@@ -2159,37 +2099,37 @@
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="91"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="91"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="41" t="s">
         <v>20</v>
       </c>
@@ -2204,9 +2144,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="28" customFormat="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -2215,15 +2155,15 @@
         <v>23</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="28" customFormat="1">
-      <c r="A19" s="101"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -2234,7 +2174,7 @@
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="28" customFormat="1">
-      <c r="A20" s="101"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -2245,7 +2185,7 @@
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -2256,7 +2196,7 @@
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1">
-      <c r="A22" s="101"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
@@ -2267,7 +2207,7 @@
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1">
-      <c r="A23" s="101"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -2278,7 +2218,7 @@
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="28" customFormat="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -2289,7 +2229,7 @@
       <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -2300,7 +2240,7 @@
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" s="28" customFormat="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -2311,7 +2251,7 @@
       <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" s="28" customFormat="1">
-      <c r="A27" s="101"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -2322,7 +2262,7 @@
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" s="28" customFormat="1">
-      <c r="A28" s="102"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -2333,75 +2273,582 @@
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="28" customFormat="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+    </row>
+    <row r="31" spans="1:9" s="28" customFormat="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-    </row>
-    <row r="31" spans="1:9" s="28" customFormat="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
+      <c r="C31" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="1:9" s="28" customFormat="1">
-      <c r="A32" s="104"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="1:9" s="28" customFormat="1">
       <c r="A33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"数据类型,数据字典,字符串,整数,浮点数,数组,文件,URL,对象"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="17.5" style="30" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="30" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="9" width="51.25" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A4" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="35">
+        <v>42248</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A6" s="94"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A7" s="94"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A8" s="94"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:9" s="26" customFormat="1">
+      <c r="A9" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="94"/>
+      <c r="B10" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="94"/>
+      <c r="B11" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="94"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="94"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="94"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="94"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" s="27" customFormat="1">
+      <c r="A17" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="28" customFormat="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" s="28" customFormat="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" s="28" customFormat="1">
+      <c r="A20" s="89"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1">
+      <c r="A21" s="89"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" s="28" customFormat="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" s="28" customFormat="1">
+      <c r="A23" s="89"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" s="28" customFormat="1">
+      <c r="A24" s="89"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1">
+      <c r="A25" s="89"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" s="28" customFormat="1">
+      <c r="A26" s="89"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9" s="28" customFormat="1">
+      <c r="A27" s="89"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" s="28" customFormat="1">
+      <c r="A28" s="90"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:9" s="27" customFormat="1">
+      <c r="A29" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+    </row>
+    <row r="30" spans="1:9" s="28" customFormat="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+    </row>
+    <row r="31" spans="1:9" s="28" customFormat="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+    </row>
+    <row r="32" spans="1:9" s="28" customFormat="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+    </row>
+    <row r="33" spans="1:9" s="28" customFormat="1">
+      <c r="A33" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2431,509 +2878,6 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>"数据类型,数据字典,字符串,整数,浮点数,数组,文件,URL,对象"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="10"/>
-  </sheetPr>
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:I31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="29"/>
-    <col min="2" max="2" width="17.5" style="30" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="9" style="31" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9" style="30"/>
-    <col min="9" max="9" width="51.25" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="35">
-        <v>42248</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="91"/>
-      <c r="B10" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="91"/>
-      <c r="B11" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="91"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="91"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="91"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="91"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="91"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="28" customFormat="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:9" s="28" customFormat="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" s="28" customFormat="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="43"/>
-    </row>
-    <row r="21" spans="1:9" s="28" customFormat="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="43"/>
-    </row>
-    <row r="22" spans="1:9" s="28" customFormat="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="1:9" s="28" customFormat="1">
-      <c r="A23" s="101"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="1:9" s="28" customFormat="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="1:9" s="28" customFormat="1">
-      <c r="A26" s="101"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="1:9" s="28" customFormat="1">
-      <c r="A27" s="101"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-    </row>
-    <row r="28" spans="1:9" s="28" customFormat="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="1:9" s="27" customFormat="1">
-      <c r="A29" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-    </row>
-    <row r="30" spans="1:9" s="28" customFormat="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-    </row>
-    <row r="31" spans="1:9" s="28" customFormat="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-    </row>
-    <row r="32" spans="1:9" s="28" customFormat="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-    </row>
-    <row r="33" spans="1:9" s="28" customFormat="1">
-      <c r="A33" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -2971,50 +2915,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="B2" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="B3" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="85" t="s">
@@ -3023,75 +2967,75 @@
       <c r="C4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="84" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="35">
         <v>42249</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="91"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="84"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="91"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="36" t="s">
         <v>20</v>
       </c>
@@ -3106,35 +3050,35 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="91"/>
-      <c r="B10" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="38" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="91"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="39"/>
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="91"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="96"/>
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
@@ -3145,7 +3089,7 @@
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="91"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="96"/>
       <c r="C13" s="97"/>
       <c r="D13" s="97"/>
@@ -3156,7 +3100,7 @@
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="91"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="96"/>
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
@@ -3167,37 +3111,37 @@
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="91"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="91"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="41" t="s">
         <v>20</v>
       </c>
@@ -3212,82 +3156,82 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="28" customFormat="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="80"/>
       <c r="G18" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" s="28" customFormat="1">
-      <c r="A19" s="101"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
       <c r="F19" s="80"/>
       <c r="G19" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="28" customFormat="1">
-      <c r="A20" s="101"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="80"/>
       <c r="G20" s="80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="80"/>
       <c r="G21" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1">
-      <c r="A22" s="101"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="80"/>
       <c r="G22" s="80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1">
-      <c r="A23" s="101"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -3298,7 +3242,7 @@
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="28" customFormat="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -3309,7 +3253,7 @@
       <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -3320,7 +3264,7 @@
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" s="28" customFormat="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -3331,7 +3275,7 @@
       <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" s="28" customFormat="1">
-      <c r="A27" s="101"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -3342,7 +3286,7 @@
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" s="28" customFormat="1">
-      <c r="A28" s="102"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -3353,86 +3297,87 @@
       <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" s="28" customFormat="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:9" s="28" customFormat="1">
-      <c r="A31" s="104"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="1:9" s="28" customFormat="1">
-      <c r="A32" s="104"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="1:9" s="28" customFormat="1">
       <c r="A33" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -3442,15 +3387,14 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
@@ -3689,7 +3633,7 @@
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>33</v>
@@ -3698,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="12">
         <v>42248</v>
@@ -3709,11 +3653,11 @@
         <v>35</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="12">
         <v>42248</v>
@@ -3730,7 +3674,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="12">
         <v>42248</v>
